--- a/recovered.xlsx
+++ b/recovered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0969FB0F-1EFD-485D-862D-7B07FE79924B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFCB02-214E-4383-B16C-E71618CB7A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +875,132 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F23">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43915</v>
+      </c>
+      <c r="F24">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43916</v>
+      </c>
+      <c r="F25">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="F26">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/recovered.xlsx
+++ b/recovered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFCB02-214E-4383-B16C-E71618CB7A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E01086D-D24B-4E42-A78A-025B1A840A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1001,69 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43920</v>
+      </c>
+      <c r="F29">
+        <v>228</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F30">
+        <v>240</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/recovered.xlsx
+++ b/recovered.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E01086D-D24B-4E42-A78A-025B1A840A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB8A068-85B3-4CB8-AEB4-867012452EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -100,10 +112,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,638 +447,1744 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>43893</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>43894</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>43895</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>43896</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>43897</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>43898</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>43899</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>43900</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>43901</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>43902</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>43903</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>43904</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>43905</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>43906</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>43907</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <v>43908</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>43909</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>21</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>43910</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>22</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>43911</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>24</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>43912</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>24</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>43913</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>35</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>43914</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <v>43915</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>63</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>43916</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>72</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>43917</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>76</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
         <v>43918</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>80</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <v>43919</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>80</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <v>43920</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>228</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>43921</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>240</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43922</v>
+      </c>
+      <c r="F31" s="5">
+        <v>248</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43923</v>
+      </c>
+      <c r="F32" s="5">
+        <v>256</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43924</v>
+      </c>
+      <c r="F33" s="5">
+        <v>266</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43925</v>
+      </c>
+      <c r="F34" s="5">
+        <v>279</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43926</v>
+      </c>
+      <c r="F35" s="5">
+        <v>280</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43927</v>
+      </c>
+      <c r="F36" s="5">
+        <v>325</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43928</v>
+      </c>
+      <c r="F37" s="5">
+        <v>338</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43929</v>
+      </c>
+      <c r="F38" s="5">
+        <v>358</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43930</v>
+      </c>
+      <c r="F39" s="5">
+        <v>365</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43931</v>
+      </c>
+      <c r="F40" s="5">
+        <v>375</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43932</v>
+      </c>
+      <c r="F41" s="5">
+        <v>440</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43933</v>
+      </c>
+      <c r="F42" s="5">
+        <v>468</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43934</v>
+      </c>
+      <c r="F43" s="5">
+        <v>515</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43935</v>
+      </c>
+      <c r="F44" s="5">
+        <v>559</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43936</v>
+      </c>
+      <c r="F45" s="5">
+        <v>596</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43937</v>
+      </c>
+      <c r="F46" s="5">
+        <v>631</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43938</v>
+      </c>
+      <c r="F47" s="5">
+        <v>666</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43939</v>
+      </c>
+      <c r="F48" s="5">
+        <v>685</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43940</v>
+      </c>
+      <c r="F49" s="5">
+        <v>709</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43941</v>
+      </c>
+      <c r="F50" s="5">
+        <v>737</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43942</v>
+      </c>
+      <c r="F51" s="5">
+        <v>840</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43943</v>
+      </c>
+      <c r="F52" s="5">
+        <v>919</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43944</v>
+      </c>
+      <c r="F53" s="5">
+        <v>976</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43945</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1030</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>43946</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1107</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43947</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1140</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43948</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1140</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43949</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1162</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43950</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1192</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43951</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1256</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>43952</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1292</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>43953</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1320</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>43954</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1354</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43955</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1442</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>43956</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1472</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43957</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1524</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>43958</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1601</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43959</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1659</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43960</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1728</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43961</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1757</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43962</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1837</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>43963</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1862</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43964</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2266</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>43965</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2385</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>43966</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2497</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43967</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2534</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43968</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2569</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43969</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2625</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43970</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2872</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43971</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2933</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="G87" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
